--- a/visio-v03.xlsx
+++ b/visio-v03.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Process Diagram" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="Visio_01">'Process Diagram'!$A$1:$M$13</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
